--- a/tests/datasets/err1_data_entry.xlsx
+++ b/tests/datasets/err1_data_entry.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844E7F7E-B983-1F40-88EF-C6D7A6CF9AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80891BD-78D6-1E49-B3CF-A3F3685EB4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema Description" sheetId="1" r:id="rId1"/>
     <sheet name="Data Entry" sheetId="2" r:id="rId2"/>
-    <sheet name="Schema conformant data" sheetId="3" r:id="rId3"/>
+    <sheet name="Schema Conformant Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1283,7 +1283,7 @@
   <dimension ref="A1:H1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
